--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\itscoronatime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D912488C-06D0-4B82-B422-82E9DFB0A6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661D4BBB-9EB7-4D7E-B643-A33C695A35EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6FC3B64F-2061-4F08-8BBB-7BB67ECF19F7}"/>
   </bookViews>
@@ -33,22 +33,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>nowe przypadki</t>
-  </si>
-  <si>
-    <t>wszystkie przypadki</t>
-  </si>
-  <si>
     <t>dzień</t>
   </si>
   <si>
     <t>L.p.</t>
   </si>
   <si>
-    <t>Wszystkie przypadki</t>
+    <t>C średnia z 7 dni</t>
   </si>
   <si>
-    <t>Nowe przypadki</t>
+    <t>D średnia z 7 dni</t>
+  </si>
+  <si>
+    <t>nowe</t>
+  </si>
+  <si>
+    <t>wszystkie</t>
   </si>
 </sst>
 </file>
@@ -90,11 +90,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,199 +378,199 @@
                   <c:v>1388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1388</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,10 +2033,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$3:$D$24</c:f>
+              <c:f>Arkusz1!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2094,6 +2102,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,25 +2453,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Trajektoria COVID-19 w Polsce (log/log)</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Trajektoria</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(tygodniowa)</a:t>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> COVID-19 w Polsce (log/log) średnia z tygodnia</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2526,44 +2525,239 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18488368413577547"/>
+                  <c:y val="0.14768963656650685"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.8683x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                      <a:t>0.7418</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$100:$C$103</c:f>
+              <c:f>Arkusz1!$E$3:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>19.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>28.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>354</c:v>
+                  <c:v>42.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1220</c:v>
+                  <c:v>58.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>459.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>663.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>787.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>924.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1082.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1225.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1352.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1541.8571428571429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1601.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$100:$D$103</c:f>
+              <c:f>Arkusz1!$F$3:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>9.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>866</c:v>
+                  <c:v>16.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.71428571428571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>195.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2765,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F86F-4573-AED9-52F55D708F2D}"/>
+              <c16:uniqueId val="{00000001-84C9-472A-BB68-793310B7A28C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2583,14 +2777,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405857160"/>
-        <c:axId val="405857488"/>
+        <c:axId val="398421528"/>
+        <c:axId val="398421856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405857160"/>
+        <c:axId val="398421528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2643,11 +2838,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Wszystkie potwierdzone</a:t>
+                  <a:t>Wszystie</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> przypadki</a:t>
+                  <a:t> potwierdzone przypadki</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2718,15 +2913,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405857488"/>
+        <c:crossAx val="398421856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405857488"/>
+        <c:axId val="398421856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2785,7 +2981,6 @@
                   <a:rPr lang="pl-PL" baseline="0"/>
                   <a:t> potwierdzone przypadki</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2855,7 +3050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405857160"/>
+        <c:crossAx val="398421528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5139,16 +5334,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171448</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5175,16 +5370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5211,16 +5406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5247,27 +5442,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Wykres 10">
+        <xdr:cNvPr id="6" name="Wykres 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCBA576-A68C-4857-A107-23C97A66B189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD013C2-1BA5-4EE6-83FE-2E537C18FD98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5581,46 +5778,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2ABA44-B269-4E25-B6AD-AE86E51B8505}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>43896</v>
       </c>
       <c r="C3">
@@ -5630,12 +5832,20 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>AVERAGE(C3:C9)</f>
+        <v>19.142857142857142</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(D3:D9)</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>43897</v>
       </c>
       <c r="C4">
@@ -5645,12 +5855,20 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>AVERAGE(C4:C10)</f>
+        <v>28.428571428571427</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(D4:D10)</f>
+        <v>9.2857142857142865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>43898</v>
       </c>
       <c r="C5">
@@ -5660,12 +5878,20 @@
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ref="E5:F16" si="0">AVERAGE(C5:C11)</f>
+        <v>42.428571428571431</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>43899</v>
       </c>
       <c r="C6">
@@ -5675,72 +5901,112 @@
       <c r="D6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>58.714285714285715</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>43900</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C69" si="0">D7+C6</f>
+        <f t="shared" ref="C7:C69" si="1">D7+C6</f>
         <v>21</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>81.571428571428569</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>43901</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>112.42857142857143</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>30.857142857142858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>43902</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>36.571428571428569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>43903</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>192.42857142857142</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>43.428571428571431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>43904</v>
       </c>
       <c r="C11">
@@ -5750,1022 +6016,1109 @@
       <c r="D11">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>243.42857142857142</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>43905</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>305.14285714285717</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>61.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>43906</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="D13">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>377.85714285714283</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>72.714285714285708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>43907</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="D14">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>459.57142857142856</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>81.714285714285708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>43908</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>286</v>
       </c>
       <c r="D15">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>554.28571428571433</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>94.714285714285708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>43909</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="D16">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>663.42857142857144</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>109.14285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>43910</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>424</v>
       </c>
       <c r="D17">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>AVERAGE(C17:C23)</f>
+        <v>787.14285714285711</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(D17:D23)</f>
+        <v>123.71428571428571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>43911</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>535</v>
       </c>
       <c r="D18">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f>AVERAGE(C18:C24)</f>
+        <v>924.85714285714289</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(D18:D24)</f>
+        <v>137.71428571428572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>43912</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="D19">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" ref="E19:F25" si="2">AVERAGE(C19:C25)</f>
+        <v>1082.2857142857142</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>157.42857142857142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>43913</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>748</v>
       </c>
       <c r="D20">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1225.7142857142858</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>167.33333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>43914</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="D21">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1352.7142857142858</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>43915</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1458</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>184.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>43916</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1220</v>
       </c>
       <c r="D23">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1541.8571428571429</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>195.66666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>43917</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1388</v>
       </c>
       <c r="D24">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1601.4285714285713</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>43918</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+      <c r="D25">
+        <v>249</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1637</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>43919</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>43920</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>43921</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>43922</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>43923</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>43924</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>43925</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>43926</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>43927</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>43928</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>43929</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>43930</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>43931</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>43932</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>43933</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>43934</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>43935</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>43936</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>43937</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>43938</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>43939</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>43940</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>43941</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>43942</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>43943</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>43944</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>43945</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>43946</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>43947</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>43948</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>43949</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>43950</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>43951</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>43952</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>43953</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>43954</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>43955</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>43956</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>43957</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>43958</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>43959</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>43960</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>43961</v>
       </c>
       <c r="C68">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>43962</v>
       </c>
       <c r="C69">
-        <f t="shared" si="0"/>
-        <v>1388</v>
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>43963</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C89" si="1">D70+C69</f>
-        <v>1388</v>
+        <f t="shared" ref="C70:C89" si="3">D70+C69</f>
+        <v>1637</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>43964</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>43965</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>43966</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>43967</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>43968</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>43969</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>43970</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>43971</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>43972</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>43973</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>43974</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>43975</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>43976</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>43977</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>43978</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>43979</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>43980</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>43981</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>43982</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>1388</v>
+        <f t="shared" si="3"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101">
-        <v>50</v>
-      </c>
-      <c r="D101">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <v>354</v>
-      </c>
-      <c r="D102">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103">
-        <v>1220</v>
-      </c>
-      <c r="D103">
-        <v>866</v>
-      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\itscoronatime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661D4BBB-9EB7-4D7E-B643-A33C695A35EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1682992-821C-43CE-BBBE-357F68A7292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6FC3B64F-2061-4F08-8BBB-7BB67ECF19F7}"/>
   </bookViews>
@@ -381,196 +381,196 @@
                   <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1637</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,6 +649,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,10 +1107,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$3:$A$24</c:f>
+              <c:f>Arkusz1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1173,16 +1176,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$3:$C$24</c:f>
+              <c:f>Arkusz1!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1248,6 +1257,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,85 +1696,8 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10879240562219442"/>
-                  <c:y val="0.49976859617209024"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = 0.4534x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t> - 1.6261x + 4.4917</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>R² = 0.9758</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2033,10 +1971,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$3:$D$25</c:f>
+              <c:f>Arkusz1!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2105,6 +2043,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,22 +2605,25 @@
                   <c:v>1082.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1225.7142857142858</c:v>
+                  <c:v>1257.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1352.7142857142858</c:v>
+                  <c:v>1416.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1458</c:v>
+                  <c:v>1554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1541.8571428571429</c:v>
+                  <c:v>1669.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1601.4285714285713</c:v>
+                  <c:v>1761.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1637</c:v>
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,22 +2686,25 @@
                   <c:v>157.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>167.33333333333334</c:v>
+                  <c:v>175.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>177.8</c:v>
+                  <c:v>185.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>184.25</c:v>
+                  <c:v>192.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195.66666666666666</c:v>
+                  <c:v>202.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.5</c:v>
+                  <c:v>213.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>249</c:v>
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2ABA44-B269-4E25-B6AD-AE86E51B8505}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,7 +6148,7 @@
         <v>98</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:F25" si="2">AVERAGE(C19:C25)</f>
+        <f t="shared" ref="E19:F26" si="2">AVERAGE(C19:C25)</f>
         <v>1082.2857142857142</v>
       </c>
       <c r="F19">
@@ -6225,11 +6172,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>1225.7142857142858</v>
+        <v>1257.7142857142858</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>167.33333333333334</v>
+        <v>175.42857142857142</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,11 +6195,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>1352.7142857142858</v>
+        <v>1416.7142857142858</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>177.8</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6271,11 +6218,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>1458</v>
+        <v>1554</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>184.25</v>
+        <v>192.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6294,11 +6241,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>1541.8571428571429</v>
+        <v>1669.8571428571429</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>195.66666666666666</v>
+        <v>202.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,11 +6264,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>1601.4285714285713</v>
+        <v>1761.4285714285713</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>208.5</v>
+        <v>213.66666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,11 +6287,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>1637</v>
+        <v>1829</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6356,7 +6303,18 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
+      </c>
+      <c r="D26">
+        <v>224</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1861</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6368,7 +6326,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6380,7 +6338,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,7 +6350,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,7 +6362,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,7 +6374,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6428,7 +6386,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,7 +6398,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,7 +6410,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6464,7 +6422,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,7 +6434,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,7 +6446,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6500,7 +6458,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6512,7 +6470,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6524,7 +6482,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6536,7 +6494,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,7 +6506,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6560,7 +6518,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6572,7 +6530,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,7 +6542,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6596,7 +6554,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6608,7 +6566,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6620,7 +6578,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6632,7 +6590,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6644,7 +6602,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6656,7 +6614,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6668,7 +6626,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6680,7 +6638,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6692,7 +6650,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6704,7 +6662,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,7 +6674,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6728,7 +6686,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6740,7 +6698,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,7 +6710,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6764,7 +6722,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,7 +6734,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6788,7 +6746,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6800,7 +6758,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,7 +6770,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6824,7 +6782,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6836,7 +6794,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,7 +6806,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6860,7 +6818,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6872,7 +6830,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,7 +6842,7 @@
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C89" si="3">D70+C69</f>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,7 +6854,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,7 +6866,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6920,7 +6878,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6932,7 +6890,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6944,7 +6902,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6956,7 +6914,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6968,7 +6926,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,7 +6938,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6992,7 +6950,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7004,7 +6962,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,7 +6974,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7028,7 +6986,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,7 +6998,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7052,7 +7010,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,7 +7022,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7076,7 +7034,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7088,7 +7046,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7100,7 +7058,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7112,7 +7070,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>1637</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
